--- a/data/trans_dic/P24_8_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_8_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia</t>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>9,64%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>11,75%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,02%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,27%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>15,67%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19,76%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>8,8%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>6,93%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>12,71%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,33</t>
+          <t>3,85; 8,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,13</t>
+          <t>4,15; 9,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,12</t>
+          <t>2,22; 4,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 6,8</t>
+          <t>3,27; 6,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,01</t>
+          <t>3,02; 7,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,95</t>
+          <t>7,58; 12,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,77</t>
+          <t>8,85; 14,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 12,36</t>
+          <t>9,69; 14,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 16,13</t>
+          <t>8,11; 12,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 18,73</t>
+          <t>8,15; 12,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,52</t>
+          <t>11,53; 16,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 10,24</t>
+          <t>10,74; 16,42</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,15</t>
+          <t>13,35; 18,42</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 10,88</t>
+          <t>16,98; 22,87</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>11,16; 14,56</t>
+          <t>7,32; 10,59</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 10,41</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 8,36</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 11,16</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 11,13</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 14,53</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>13,45; 17,65</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,96%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>12,87%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,48%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11,18%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>17,02%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>8,39%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,2%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>11,73%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,72</t>
+          <t>2,43; 5,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,75</t>
+          <t>1,75; 5,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,55</t>
+          <t>3,69; 7,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 12,45</t>
+          <t>5,33; 12,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 11,31</t>
+          <t>4,78; 10,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 15,78</t>
+          <t>4,22; 11,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,84; 14,81</t>
+          <t>5,96; 13,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 13,95</t>
+          <t>10,3; 15,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 13,3</t>
+          <t>9,34; 15,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 23,27</t>
+          <t>9,2; 14,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 10,14</t>
+          <t>8,42; 13,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,14</t>
+          <t>13,65; 20,74</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,07</t>
+          <t>12,37; 23,27</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,76</t>
+          <t>14,19; 24,58</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 15,13</t>
+          <t>6,77; 10,07</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 9,43</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,83; 10,09</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 11,7</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 14,43</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>8,77; 15,12</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 17,22</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,26%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>13,42%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,8%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,59%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,19%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>10,23%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,12%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 21,68</t>
+          <t>1,88; 23,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,18</t>
+          <t>0,62; 5,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,04</t>
+          <t>1,7; 8,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,22</t>
+          <t>0,94; 7,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,38; 12,97</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>9,08; 19,52</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 18,1</t>
+          <t>8,71; 19,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 20,28</t>
+          <t>6,22; 15,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>8,3; 18,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9,47; 20,07</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 20,42</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,76; 18,17</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 8,91</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>5,75; 11,51</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 18,48</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 9,33</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 12,12</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 11,94</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 13,94</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,7 +1424,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1205,62 +1434,92 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>9,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>12,38%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>10,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,75%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>15,96%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>8,81%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>9,2%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>12,49%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,37</t>
+          <t>3,66; 7,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,89</t>
+          <t>3,24; 6,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 5,4</t>
+          <t>3,43; 5,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 7,85</t>
+          <t>4,3; 7,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,15</t>
+          <t>4,41; 7,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,0</t>
+          <t>7,33; 11,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 12,61</t>
+          <t>8,78; 13,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 12,52</t>
+          <t>10,84; 14,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,13</t>
+          <t>9,26; 12,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 18,21</t>
+          <t>9,37; 12,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,08</t>
+          <t>10,99; 14,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,74</t>
+          <t>12,53; 16,9</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,71</t>
+          <t>13,61; 18,52</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 10,46</t>
+          <t>17,33; 22,3</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,91; 13,96</t>
+          <t>7,79; 10,13</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 8,94</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 8,73</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 10,45</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>9,08; 11,83</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 14,0</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 16,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>91384</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>100510</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>56778</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>78416</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>78430</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22079</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25549</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>210487</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>187622</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>184063</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>249362</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>239429</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>37210</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>46533</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>301871</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>288132</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>240842</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>327779</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>317860</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>59289</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>72082</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>63149; 140620</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>68366; 159604</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36278; 80698</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>53772; 111262</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>49471; 126685</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17361; 27942</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20042; 32231</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>173525; 252374</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>146315; 230833</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>148449; 225344</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>209401; 295381</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>193694; 296128</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>31702; 43737</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39992; 53865</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>251176; 363313</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>240442; 359311</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>201753; 289031</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>282046; 386471</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>257901; 383319</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>51823; 67758</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>62107; 81542</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53091</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42831</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74385</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>108891</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>97603</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5028</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6511</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>181465</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>166636</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>156940</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>146424</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>235159</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11098</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12516</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>234557</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>209467</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>231326</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>255315</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>332763</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>16127</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>19027</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33650; 78782</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23931; 70473</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50882; 105892</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73509; 172785</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>65933; 142934</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3049; 8276</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4349; 9897</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>145279; 223668</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>129843; 210288</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>125600; 198062</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>116187; 186574</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>190335; 289196</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>8066; 15176</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9371; 16229</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>189374; 281731</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>168084; 260081</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>187409; 276792</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>204626; 322822</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>279499; 400330</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>12055; 20797</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>14662; 23925</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30204</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9891</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17153</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12049</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26091</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>55267</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41212</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>52392</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>58432</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53624</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>85471</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>51103</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>69545</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>70481</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>79715</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7959; 98227</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2625; 25240</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7094; 33664</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3980; 30565</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9913; 54057</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35864; 78699</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25627; 64050</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33976; 74511</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>39017; 82676</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31555; 84109</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>55669; 154290</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>30521; 77910</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>47847; 100133</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>48095; 99645</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>50711; 115503</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>174679</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153232</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>148316</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>199357</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>202124</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27107</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>32060</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>447220</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>395469</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>393396</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>454218</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>528213</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>48309</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>59049</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>621899</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>548702</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>541712</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>653574</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>730338</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>75416</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>91110</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>126397; 243660</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111538; 206688</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>117610; 189835</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>148284; 267650</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>151437; 262078</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22075; 33397</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26273; 39550</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>391782; 511532</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>333807; 453432</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>336922; 458147</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>396392; 518209</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>452328; 610231</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>41205; 56039</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>52248; 67258</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>550436; 715063</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>473518; 629999</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>478867; 613641</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>575944; 737405</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>640157; 833293</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>66376; 84581</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>81834; 100594</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
